--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>First Name</t>
   </si>
@@ -27,38 +27,26 @@
     <t>Company Name</t>
   </si>
   <si>
-    <t>Qeagle</t>
-  </si>
-  <si>
-    <t>Babu</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>babu@testleaf.com</t>
-  </si>
-  <si>
-    <t>TestLeaf</t>
-  </si>
-  <si>
-    <t>Gopi</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>gopi@testleaf.com</t>
+    <t>HCl</t>
+  </si>
+  <si>
+    <t>Capgemini</t>
+  </si>
+  <si>
+    <t>SARUMATHI</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>REVATHI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +61,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,22 +101,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -194,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +203,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,12 +423,9 @@
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -464,45 +435,32 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>First Name</t>
   </si>
@@ -40,13 +40,19 @@
   </si>
   <si>
     <t>REVATHI</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>gyt@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +64,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,16 +114,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD25"/>
+      <selection activeCell="E1" sqref="E1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,9 +453,10 @@
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -435,8 +466,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -446,8 +480,11 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -457,10 +494,17 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
